--- a/output/1Y_P33_1VAL-D.xlsx
+++ b/output/1Y_P33_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>13.8433</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>722.3711</v>
       </c>
-      <c r="G2" s="1">
-        <v>722.3711</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1338</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.8433</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1338</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>14.4086</v>
       </c>
+      <c r="E3" s="1">
+        <v>722.3711</v>
+      </c>
       <c r="F3" s="1">
         <v>694.03</v>
       </c>
-      <c r="G3" s="1">
-        <v>1416.4011</v>
-      </c>
       <c r="H3" s="1">
-        <v>20302.5512</v>
+        <v>10354.3953</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.1203</v>
+        <v>10354.3953</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.8433</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20302.5512</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0178</v>
+        <v>0.0354</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>14.9338</v>
       </c>
+      <c r="E4" s="1">
+        <v>1416.4011</v>
+      </c>
       <c r="F4" s="1">
         <v>669.6219</v>
       </c>
-      <c r="G4" s="1">
-        <v>2086.023</v>
-      </c>
       <c r="H4" s="1">
-        <v>30990.5834</v>
+        <v>21042.4791</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.3814</v>
+        <v>21042.4791</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.1203</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30990.5834</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0227</v>
+        <v>0.0338</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>15.9313</v>
       </c>
+      <c r="E5" s="1">
+        <v>2086.023</v>
+      </c>
       <c r="F5" s="1">
         <v>627.6952</v>
       </c>
-      <c r="G5" s="1">
-        <v>2713.7182</v>
-      </c>
       <c r="H5" s="1">
-        <v>43008.905</v>
+        <v>33060.7527</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.7399</v>
+        <v>33060.7527</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.3814</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43008.905</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0492</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.0207</v>
       </c>
+      <c r="E6" s="1">
+        <v>2713.7182</v>
+      </c>
       <c r="F6" s="1">
         <v>587.5199</v>
       </c>
-      <c r="G6" s="1">
-        <v>3301.2381</v>
-      </c>
       <c r="H6" s="1">
-        <v>55897.8834</v>
+        <v>45949.7614</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.1458</v>
+        <v>45949.7614</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.7399</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>55897.8834</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0545</v>
+        <v>0.06710000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.4608</v>
       </c>
+      <c r="E7" s="1">
+        <v>3301.2381</v>
+      </c>
       <c r="F7" s="1">
         <v>572.7114</v>
       </c>
-      <c r="G7" s="1">
-        <v>3873.9495</v>
-      </c>
       <c r="H7" s="1">
-        <v>67291.2778</v>
+        <v>57343.1654</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.4881</v>
+        <v>57343.1654</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.1458</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>67291.2778</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0211</v>
+        <v>0.0249</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>16.886</v>
       </c>
+      <c r="E8" s="1">
+        <v>3873.9495</v>
+      </c>
       <c r="F8" s="1">
         <v>592.2066</v>
       </c>
-      <c r="G8" s="1">
-        <v>4466.1561</v>
-      </c>
       <c r="H8" s="1">
-        <v>75024.7228</v>
+        <v>65076.5408</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6734</v>
+        <v>65076.5408</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.4881</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75024.7228</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0293</v>
+        <v>-0.0337</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.59</v>
       </c>
+      <c r="E9" s="1">
+        <v>4466.1561</v>
+      </c>
       <c r="F9" s="1">
         <v>568.5048</v>
       </c>
-      <c r="G9" s="1">
-        <v>5034.6609</v>
-      </c>
       <c r="H9" s="1">
-        <v>88100.5242</v>
+        <v>78152.3719</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.8898</v>
+        <v>78152.3719</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.6734</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>88100.5242</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0362</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>15.0121</v>
       </c>
+      <c r="E10" s="1">
+        <v>5034.6609</v>
+      </c>
       <c r="F10" s="1">
         <v>666.1292999999999</v>
       </c>
-      <c r="G10" s="1">
-        <v>5700.7902</v>
-      </c>
       <c r="H10" s="1">
-        <v>85136.7414</v>
+        <v>75188.6329</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.7873</v>
+        <v>75188.6329</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>15.8898</v>
+      </c>
+      <c r="M10" s="1">
         <v>3.57</v>
       </c>
-      <c r="L10" s="1">
-        <v>16176.3655</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>6176.3655</v>
+        <v>14349.7595</v>
       </c>
       <c r="O10" s="1">
-        <v>16176.3655</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>101313.1069</v>
+        <v>4349.7595</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0327</v>
+        <v>-0.1471</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>15.3645</v>
       </c>
+      <c r="E11" s="1">
+        <v>5700.7902</v>
+      </c>
       <c r="F11" s="1">
-        <v>1001.7978</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6702.588</v>
+        <v>962.1695</v>
       </c>
       <c r="H11" s="1">
-        <v>102447.717</v>
+        <v>87135.4385</v>
       </c>
       <c r="I11" s="1">
-        <v>105392.1218</v>
+        <v>14349.7595</v>
       </c>
       <c r="J11" s="1">
-        <v>15.7241</v>
+        <v>101485.1979</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>94783.25320000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.6263</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-15392.1218</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>10784.2437</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>113231.9607</v>
+        <v>-14783.2532</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0172</v>
+        <v>0.1913</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>16.4953</v>
       </c>
+      <c r="E12" s="1">
+        <v>6662.9597</v>
+      </c>
       <c r="F12" s="1">
-        <v>933.1217</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7635.7097</v>
+        <v>896.21</v>
       </c>
       <c r="H12" s="1">
-        <v>125299.7048</v>
+        <v>109337.1701</v>
       </c>
       <c r="I12" s="1">
-        <v>120784.2437</v>
+        <v>9566.506299999999</v>
       </c>
       <c r="J12" s="1">
-        <v>15.8183</v>
+        <v>118903.6764</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>109566.5063</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.4441</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-15392.1218</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>5392.1218</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>130691.8267</v>
+        <v>-14783.2532</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0605</v>
+        <v>0.0665</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>16.9701</v>
       </c>
+      <c r="E13" s="1">
+        <v>7559.1697</v>
+      </c>
       <c r="F13" s="1">
-        <v>907.0142</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8542.723900000001</v>
+        <v>871.1353</v>
       </c>
       <c r="H13" s="1">
-        <v>144219.1187</v>
+        <v>127614.6594</v>
       </c>
       <c r="I13" s="1">
-        <v>136176.3655</v>
+        <v>4783.2532</v>
       </c>
       <c r="J13" s="1">
-        <v>15.9406</v>
+        <v>132397.9126</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>124349.7595</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.4502</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-15392.1218</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>144219.1187</v>
+        <v>-14783.2532</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0251</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.9905</v>
       </c>
+      <c r="E14" s="1">
+        <v>8430.305</v>
+      </c>
       <c r="F14" s="1">
-        <v>-8542.723900000001</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7559.1697</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>150878.8553</v>
       </c>
       <c r="I14" s="1">
-        <v>136176.3655</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.9406</v>
+        <v>150878.8553</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>124349.7595</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.7503</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>152890.8377</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>152890.8377</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>152890.8377</v>
+        <v>135287.9726</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0086</v>
+        <v>0.0596</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>13.8433</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>722.3711</v>
       </c>
       <c r="G2" s="1">
-        <v>722.3711</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1338</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.8433</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1338</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>14.4086</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>722.3711</v>
       </c>
       <c r="F3" s="1">
         <v>672.9226</v>
       </c>
       <c r="G3" s="1">
-        <v>1395.2937</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10354.3953</v>
       </c>
       <c r="I3" s="1">
-        <v>19695.872</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.1159</v>
+        <v>10354.3953</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9695.871999999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.4223</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9695.871999999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>304.128</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20304.128</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0178</v>
+        <v>0.0354</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>14.9338</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1395.2937</v>
       </c>
       <c r="F4" s="1">
         <v>624.0517</v>
       </c>
       <c r="G4" s="1">
-        <v>2019.3453</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20728.9014</v>
       </c>
       <c r="I4" s="1">
-        <v>29015.3346</v>
+        <v>304.128</v>
       </c>
       <c r="J4" s="1">
-        <v>14.3687</v>
+        <v>21033.0294</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19015.3346</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.6282</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9319.462600000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>984.6654</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30984.6654</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0225</v>
+        <v>0.0333</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>15.9313</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2019.3453</v>
       </c>
       <c r="F5" s="1">
         <v>504.521</v>
       </c>
       <c r="G5" s="1">
-        <v>2523.8663</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>32003.9983</v>
       </c>
       <c r="I5" s="1">
-        <v>37053.0098</v>
+        <v>984.6654</v>
       </c>
       <c r="J5" s="1">
-        <v>14.6811</v>
+        <v>32988.6637</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27053.0098</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.3969</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8037.6751</v>
       </c>
-      <c r="O5" s="1">
-        <v>2946.9902</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42946.9902</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0479</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.0207</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2523.8663</v>
       </c>
       <c r="F6" s="1">
         <v>429.0524</v>
       </c>
       <c r="G6" s="1">
-        <v>2952.9187</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>42735.1139</v>
       </c>
       <c r="I6" s="1">
-        <v>44355.7812</v>
+        <v>2946.9902</v>
       </c>
       <c r="J6" s="1">
-        <v>15.021</v>
+        <v>45682.1042</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>34355.7812</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.6124</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7302.7714</v>
       </c>
-      <c r="O6" s="1">
-        <v>5644.2188</v>
-      </c>
-      <c r="P6" s="1">
-        <v>55644.2188</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0509</v>
+        <v>0.06270000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.4608</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2952.9187</v>
       </c>
       <c r="F7" s="1">
         <v>501.273</v>
       </c>
       <c r="G7" s="1">
-        <v>3454.1917</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>51292.7878</v>
       </c>
       <c r="I7" s="1">
-        <v>53108.4087</v>
+        <v>5644.2188</v>
       </c>
       <c r="J7" s="1">
-        <v>15.3751</v>
+        <v>56937.0066</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>43108.4087</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.5986</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8752.627500000001</v>
       </c>
-      <c r="O7" s="1">
-        <v>6891.5913</v>
-      </c>
-      <c r="P7" s="1">
-        <v>66891.5913</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.019</v>
+        <v>0.0225</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>16.886</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3454.1917</v>
       </c>
       <c r="F8" s="1">
         <v>712.8471</v>
       </c>
       <c r="G8" s="1">
-        <v>4167.0387</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>58025.2386</v>
       </c>
       <c r="I8" s="1">
-        <v>65145.5442</v>
+        <v>6891.5913</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6335</v>
+        <v>64916.8299</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>55145.5442</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.9648</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-12037.1355</v>
       </c>
-      <c r="O8" s="1">
-        <v>4854.4558</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74854.4558</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0265</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.59</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4167.0387</v>
       </c>
       <c r="F9" s="1">
         <v>404.7033</v>
       </c>
       <c r="G9" s="1">
-        <v>4571.7421</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>72918.17720000001</v>
       </c>
       <c r="I9" s="1">
-        <v>72264.27589999999</v>
+        <v>4854.4558</v>
       </c>
       <c r="J9" s="1">
-        <v>15.8067</v>
+        <v>77772.633</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>62264.2759</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.9421</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7118.7317</v>
       </c>
-      <c r="O9" s="1">
-        <v>7735.7241</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87735.72410000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.034</v>
+        <v>0.0381</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>15.0121</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4571.7421</v>
       </c>
       <c r="F10" s="1">
         <v>1181.4286</v>
       </c>
       <c r="G10" s="1">
-        <v>5753.1706</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>85919.00109999999</v>
+        <v>68275.3103</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>7735.7241</v>
       </c>
       <c r="J10" s="1">
-        <v>15.6435</v>
+        <v>76011.0344</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>17.4988</v>
+      </c>
+      <c r="M10" s="1">
         <v>3.57</v>
       </c>
-      <c r="L10" s="1">
-        <v>14689.0072</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-3046.7168</v>
+        <v>13388.6954</v>
       </c>
       <c r="O10" s="1">
-        <v>14689.0072</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>100608.0083</v>
+        <v>-4347.0287</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0294</v>
+        <v>-0.134</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>15.3645</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5753.1706</v>
       </c>
       <c r="F11" s="1">
         <v>789.2768</v>
       </c>
       <c r="G11" s="1">
-        <v>6542.4474</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>87936.06269999999</v>
       </c>
       <c r="I11" s="1">
-        <v>102126.8426</v>
+        <v>13388.6954</v>
       </c>
       <c r="J11" s="1">
-        <v>15.6099</v>
+        <v>101324.7581</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92126.8426</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.0132</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-12126.8426</v>
       </c>
-      <c r="O11" s="1">
-        <v>12562.1646</v>
-      </c>
-      <c r="P11" s="1">
-        <v>112562.1646</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0177</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>16.4953</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6542.4474</v>
       </c>
       <c r="F12" s="1">
         <v>160.9049</v>
       </c>
       <c r="G12" s="1">
-        <v>6703.3523</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>107359.5991</v>
       </c>
       <c r="I12" s="1">
-        <v>104781.017</v>
+        <v>11261.8528</v>
       </c>
       <c r="J12" s="1">
-        <v>15.6311</v>
+        <v>118621.4519</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>94781.01700000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.4871</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-2654.1744</v>
       </c>
-      <c r="O12" s="1">
-        <v>19907.9902</v>
-      </c>
-      <c r="P12" s="1">
-        <v>129907.9902</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0599</v>
+        <v>0.0655</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>16.9701</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6703.3523</v>
       </c>
       <c r="F13" s="1">
         <v>404.7681</v>
       </c>
       <c r="G13" s="1">
-        <v>7108.1204</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>113166.6636</v>
       </c>
       <c r="I13" s="1">
-        <v>111649.973</v>
+        <v>18607.6784</v>
       </c>
       <c r="J13" s="1">
-        <v>15.7074</v>
+        <v>131774.342</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>101649.973</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.1641</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6868.956</v>
       </c>
-      <c r="O13" s="1">
-        <v>23039.0343</v>
-      </c>
-      <c r="P13" s="1">
-        <v>143039.0343</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0224</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.9905</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7108.1204</v>
       </c>
       <c r="F14" s="1">
         <v>-7108.1204</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>127215.4531</v>
       </c>
       <c r="I14" s="1">
-        <v>111649.973</v>
+        <v>21738.7224</v>
       </c>
       <c r="J14" s="1">
-        <v>15.7074</v>
+        <v>148954.1755</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>101649.973</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.3005</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>127215.4531</v>
       </c>
-      <c r="O14" s="1">
-        <v>150254.4873</v>
-      </c>
-      <c r="P14" s="1">
-        <v>150254.4873</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0182</v>
+        <v>0.0506</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>13.8433</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>722.3711</v>
       </c>
       <c r="G2" s="1">
-        <v>722.3711</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1338</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.8433</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1338</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>14.4086</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>722.3711</v>
       </c>
       <c r="F3" s="1">
         <v>676.4108</v>
       </c>
       <c r="G3" s="1">
-        <v>1398.7819</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10354.3953</v>
       </c>
       <c r="I3" s="1">
-        <v>19746.1326</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.1167</v>
+        <v>10354.3953</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9746.132600000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.4919</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9746.132600000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>253.8674</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20303.8674</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0178</v>
+        <v>0.0354</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>14.9338</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1398.7819</v>
       </c>
       <c r="F4" s="1">
         <v>630.677</v>
       </c>
       <c r="G4" s="1">
-        <v>2029.4589</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20780.7237</v>
       </c>
       <c r="I4" s="1">
-        <v>29164.5364</v>
+        <v>253.8674</v>
       </c>
       <c r="J4" s="1">
-        <v>14.3706</v>
+        <v>21034.591</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19164.5364</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.7009</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9418.4038</v>
       </c>
-      <c r="O4" s="1">
-        <v>835.4636</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30985.7136</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0225</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>15.9313</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2029.4589</v>
       </c>
       <c r="F5" s="1">
         <v>513.3996</v>
       </c>
       <c r="G5" s="1">
-        <v>2542.8585</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>32164.285</v>
       </c>
       <c r="I5" s="1">
-        <v>37343.6595</v>
+        <v>835.4636</v>
       </c>
       <c r="J5" s="1">
-        <v>14.6857</v>
+        <v>32999.7486</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27343.6595</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.4734</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8179.1231</v>
       </c>
-      <c r="O5" s="1">
-        <v>2656.3405</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42957.3418</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0481</v>
+        <v>0.0633</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.0207</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2542.8585</v>
       </c>
       <c r="F6" s="1">
         <v>439.7374</v>
       </c>
       <c r="G6" s="1">
-        <v>2982.5959</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>43056.697</v>
       </c>
       <c r="I6" s="1">
-        <v>44828.2976</v>
+        <v>2656.3405</v>
       </c>
       <c r="J6" s="1">
-        <v>15.03</v>
+        <v>45713.0375</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>34828.2976</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.6965</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7484.6381</v>
       </c>
-      <c r="O6" s="1">
-        <v>5171.7024</v>
-      </c>
-      <c r="P6" s="1">
-        <v>55674.2087</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0513</v>
+        <v>0.0631</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.4608</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2982.5959</v>
       </c>
       <c r="F7" s="1">
         <v>515.0621</v>
       </c>
       <c r="G7" s="1">
-        <v>3497.658</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>51808.2867</v>
       </c>
       <c r="I7" s="1">
-        <v>53821.6942</v>
+        <v>5171.7024</v>
       </c>
       <c r="J7" s="1">
-        <v>15.3879</v>
+        <v>56979.9892</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>43821.6942</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.6925</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8993.396699999999</v>
       </c>
-      <c r="O7" s="1">
-        <v>6178.3058</v>
-      </c>
-      <c r="P7" s="1">
-        <v>66933.3245</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0192</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>16.886</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3497.658</v>
       </c>
       <c r="F8" s="1">
         <v>732.4098</v>
       </c>
       <c r="G8" s="1">
-        <v>4230.0678</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>58755.4077</v>
       </c>
       <c r="I8" s="1">
-        <v>66189.1663</v>
+        <v>6178.3058</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6473</v>
+        <v>64933.7135</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56189.1663</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.0648</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-12367.472</v>
       </c>
-      <c r="O8" s="1">
-        <v>3810.8337</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74869.62760000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0268</v>
+        <v>-0.0306</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.59</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4230.0678</v>
       </c>
       <c r="F9" s="1">
         <v>422.4848</v>
       </c>
       <c r="G9" s="1">
-        <v>4652.5526</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>74021.11040000001</v>
       </c>
       <c r="I9" s="1">
-        <v>73620.6744</v>
+        <v>3810.8337</v>
       </c>
       <c r="J9" s="1">
-        <v>15.8237</v>
+        <v>77831.94409999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>63620.6744</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.0401</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7431.5081</v>
       </c>
-      <c r="O9" s="1">
-        <v>6379.3256</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87793.4135</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0345</v>
+        <v>0.0387</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>15.0121</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4652.5526</v>
       </c>
       <c r="F10" s="1">
         <v>1091.0749</v>
       </c>
       <c r="G10" s="1">
-        <v>5743.6275</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>85776.4823</v>
+        <v>69482.1514</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>6379.3256</v>
       </c>
       <c r="J10" s="1">
-        <v>15.6695</v>
+        <v>75861.477</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>17.1949</v>
+      </c>
+      <c r="M10" s="1">
         <v>3.57</v>
       </c>
-      <c r="L10" s="1">
-        <v>14948.6516</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-1430.674</v>
+        <v>13591.2078</v>
       </c>
       <c r="O10" s="1">
-        <v>14948.6516</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>100725.1339</v>
+        <v>-2788.1178</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.03</v>
+        <v>-0.1363</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>15.3645</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5743.6275</v>
       </c>
       <c r="F11" s="1">
         <v>948.0049</v>
       </c>
       <c r="G11" s="1">
-        <v>6691.6325</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>87790.19809999999</v>
       </c>
       <c r="I11" s="1">
-        <v>104565.622</v>
+        <v>13591.2078</v>
       </c>
       <c r="J11" s="1">
-        <v>15.6263</v>
+        <v>101381.4059</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>94565.622</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.4644</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-14565.622</v>
       </c>
-      <c r="O11" s="1">
-        <v>10383.0296</v>
-      </c>
-      <c r="P11" s="1">
-        <v>112663.2937</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0175</v>
+        <v>0.1808</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>16.4953</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6691.6325</v>
       </c>
       <c r="F12" s="1">
         <v>181.8427</v>
       </c>
       <c r="G12" s="1">
-        <v>6873.4752</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>109807.6815</v>
       </c>
       <c r="I12" s="1">
-        <v>107565.1717</v>
+        <v>9025.585800000001</v>
       </c>
       <c r="J12" s="1">
-        <v>15.6493</v>
+        <v>118833.2673</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>97565.17170000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.5802</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-2999.5497</v>
       </c>
-      <c r="O12" s="1">
-        <v>17383.4799</v>
-      </c>
-      <c r="P12" s="1">
-        <v>130175.1453</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0612</v>
+        <v>0.0669</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>16.9701</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6873.4752</v>
       </c>
       <c r="F13" s="1">
         <v>433.4134</v>
       </c>
       <c r="G13" s="1">
-        <v>7306.8886</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>116038.6951</v>
       </c>
       <c r="I13" s="1">
-        <v>114920.2407</v>
+        <v>16026.0362</v>
       </c>
       <c r="J13" s="1">
-        <v>15.7277</v>
+        <v>132064.7312</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>104920.2407</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.2645</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7355.069</v>
       </c>
-      <c r="O13" s="1">
-        <v>20028.4109</v>
-      </c>
-      <c r="P13" s="1">
-        <v>143384.0346</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0229</v>
+        <v>0.0251</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.9905</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7306.8886</v>
       </c>
       <c r="F14" s="1">
         <v>-7306.8886</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>130772.8463</v>
       </c>
       <c r="I14" s="1">
-        <v>114920.2407</v>
+        <v>18670.9671</v>
       </c>
       <c r="J14" s="1">
-        <v>15.7277</v>
+        <v>149443.8135</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>104920.2407</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.3591</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>130772.8463</v>
       </c>
-      <c r="O14" s="1">
-        <v>150801.2572</v>
-      </c>
-      <c r="P14" s="1">
-        <v>150801.2572</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0168</v>
+        <v>0.0519</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>13.8433</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>722.3711</v>
       </c>
       <c r="G2" s="1">
-        <v>722.3711</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1338</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.8433</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1338</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>14.4086</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>722.3711</v>
       </c>
       <c r="F3" s="1">
         <v>679.899</v>
       </c>
       <c r="G3" s="1">
-        <v>1402.2701</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10354.3953</v>
       </c>
       <c r="I3" s="1">
-        <v>19796.3932</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.1174</v>
+        <v>10354.3953</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9796.3932</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.5614</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9796.3932</v>
       </c>
-      <c r="O3" s="1">
-        <v>203.6068</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20303.6068</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0178</v>
+        <v>0.0354</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>14.9338</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1402.2701</v>
       </c>
       <c r="F4" s="1">
         <v>637.336</v>
       </c>
       <c r="G4" s="1">
-        <v>2039.6061</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20832.5459</v>
       </c>
       <c r="I4" s="1">
-        <v>29314.2408</v>
+        <v>203.6068</v>
       </c>
       <c r="J4" s="1">
-        <v>14.3725</v>
+        <v>21036.1527</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19314.2408</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.7736</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9517.847599999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>685.7592</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30986.7592</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0225</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>15.9313</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2039.6061</v>
       </c>
       <c r="F5" s="1">
         <v>522.3712</v>
       </c>
       <c r="G5" s="1">
-        <v>2561.9773</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>32325.1051</v>
       </c>
       <c r="I5" s="1">
-        <v>37636.2936</v>
+        <v>685.7592</v>
       </c>
       <c r="J5" s="1">
-        <v>14.6903</v>
+        <v>33010.8643</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27636.2936</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.5498</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8322.052799999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>2363.7064</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42967.7164</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0483</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.0207</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2561.9773</v>
       </c>
       <c r="F6" s="1">
         <v>450.5933</v>
       </c>
       <c r="G6" s="1">
-        <v>3012.5706</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>43380.4248</v>
       </c>
       <c r="I6" s="1">
-        <v>45305.7062</v>
+        <v>2363.7064</v>
       </c>
       <c r="J6" s="1">
-        <v>15.0389</v>
+        <v>45744.1312</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>35305.7062</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.7806</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7669.4127</v>
       </c>
-      <c r="O6" s="1">
-        <v>4694.2938</v>
-      </c>
-      <c r="P6" s="1">
-        <v>55704.3439</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0517</v>
+        <v>0.0635</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.4608</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3012.5706</v>
       </c>
       <c r="F7" s="1">
         <v>529.1359</v>
       </c>
       <c r="G7" s="1">
-        <v>3541.7065</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>52328.9535</v>
       </c>
       <c r="I7" s="1">
-        <v>54544.8431</v>
+        <v>4694.2938</v>
       </c>
       <c r="J7" s="1">
-        <v>15.4007</v>
+        <v>57023.2473</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>44544.8431</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.7863</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9239.1368</v>
       </c>
-      <c r="O7" s="1">
-        <v>5455.1569</v>
-      </c>
-      <c r="P7" s="1">
-        <v>66975.3075</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0193</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>16.886</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3541.7065</v>
       </c>
       <c r="F8" s="1">
         <v>752.4478</v>
       </c>
       <c r="G8" s="1">
-        <v>4294.1544</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>59495.357</v>
       </c>
       <c r="I8" s="1">
-        <v>67250.6774</v>
+        <v>5455.1569</v>
       </c>
       <c r="J8" s="1">
-        <v>15.661</v>
+        <v>64950.5139</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57250.6774</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.1647</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-12705.8343</v>
       </c>
-      <c r="O8" s="1">
-        <v>2749.3226</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74884.6747</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0272</v>
+        <v>-0.0309</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.59</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4294.1544</v>
       </c>
       <c r="F9" s="1">
         <v>440.8392</v>
       </c>
       <c r="G9" s="1">
-        <v>4734.9936</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>75142.5484</v>
       </c>
       <c r="I9" s="1">
-        <v>75005.03909999999</v>
+        <v>2749.3226</v>
       </c>
       <c r="J9" s="1">
-        <v>15.8406</v>
+        <v>77891.871</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>65005.0391</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.138</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7754.3618</v>
       </c>
-      <c r="O9" s="1">
-        <v>4994.9609</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87851.66650000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.035</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>15.0121</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4734.9936</v>
       </c>
       <c r="F10" s="1">
         <v>998.8583</v>
       </c>
       <c r="G10" s="1">
-        <v>5733.8519</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>85630.4909</v>
+        <v>70713.34110000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>4994.9609</v>
       </c>
       <c r="J10" s="1">
-        <v>15.6963</v>
+        <v>75708.302</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>16.8955</v>
+      </c>
+      <c r="M10" s="1">
         <v>3.57</v>
       </c>
-      <c r="L10" s="1">
-        <v>15213.5344</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>218.5735</v>
+        <v>13797.118</v>
       </c>
       <c r="O10" s="1">
-        <v>15213.5344</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>100844.0253</v>
+        <v>-1197.8429</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0306</v>
+        <v>-0.1386</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>15.3645</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5733.8519</v>
       </c>
       <c r="F11" s="1">
         <v>1110.9956</v>
       </c>
       <c r="G11" s="1">
-        <v>6844.8475</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>87640.7794</v>
       </c>
       <c r="I11" s="1">
-        <v>107069.8924</v>
+        <v>13797.118</v>
       </c>
       <c r="J11" s="1">
-        <v>15.6424</v>
+        <v>101437.8974</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>97069.8924</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.9293</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-17069.8924</v>
       </c>
-      <c r="O11" s="1">
-        <v>8143.642</v>
-      </c>
-      <c r="P11" s="1">
-        <v>112765.7674</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0173</v>
+        <v>0.1835</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>16.4953</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6844.8475</v>
       </c>
       <c r="F12" s="1">
         <v>203.9314</v>
       </c>
       <c r="G12" s="1">
-        <v>7048.7789</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>112321.8944</v>
       </c>
       <c r="I12" s="1">
-        <v>110433.8012</v>
+        <v>6727.2256</v>
       </c>
       <c r="J12" s="1">
-        <v>15.6671</v>
+        <v>119049.12</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100433.8012</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.6729</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-3363.9088</v>
       </c>
-      <c r="O12" s="1">
-        <v>14779.7332</v>
-      </c>
-      <c r="P12" s="1">
-        <v>130448.0799</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0626</v>
+        <v>0.0683</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>16.9701</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>7048.7789</v>
       </c>
       <c r="F13" s="1">
         <v>463.6177</v>
       </c>
       <c r="G13" s="1">
-        <v>7512.3966</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>118998.1898</v>
       </c>
       <c r="I13" s="1">
-        <v>118301.4399</v>
+        <v>13363.3168</v>
       </c>
       <c r="J13" s="1">
-        <v>15.7475</v>
+        <v>132361.5066</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>108301.4399</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.3646</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7867.6387</v>
       </c>
-      <c r="O13" s="1">
-        <v>16912.0945</v>
-      </c>
-      <c r="P13" s="1">
-        <v>143737.1246</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0234</v>
+        <v>0.0257</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>17.9905</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7512.3966</v>
       </c>
       <c r="F14" s="1">
         <v>-7512.3966</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>134450.8639</v>
       </c>
       <c r="I14" s="1">
-        <v>118301.4399</v>
+        <v>15495.6781</v>
       </c>
       <c r="J14" s="1">
-        <v>15.7475</v>
+        <v>149946.542</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>108301.4399</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.4164</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>134450.8639</v>
       </c>
-      <c r="O14" s="1">
-        <v>151362.9584</v>
-      </c>
-      <c r="P14" s="1">
-        <v>151362.9584</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0154</v>
+        <v>0.0533</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>13.8433</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>722.3711</v>
       </c>
       <c r="G2" s="1">
-        <v>722.3711</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1338</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.8433</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1338</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>14.4086</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>722.3711</v>
       </c>
       <c r="F3" s="1">
         <v>683.3873</v>
       </c>
       <c r="G3" s="1">
-        <v>1405.7584</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10354.3953</v>
       </c>
       <c r="I3" s="1">
-        <v>19846.6538</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.1181</v>
+        <v>10354.3953</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9846.6538</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.631</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9846.6538</v>
       </c>
-      <c r="O3" s="1">
-        <v>153.3462</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20303.3462</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0178</v>
+        <v>0.0354</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>14.9338</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1405.7584</v>
       </c>
       <c r="F4" s="1">
         <v>644.0286</v>
       </c>
       <c r="G4" s="1">
-        <v>2049.787</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20884.3682</v>
       </c>
       <c r="I4" s="1">
-        <v>29464.4478</v>
+        <v>153.3462</v>
       </c>
       <c r="J4" s="1">
-        <v>14.3744</v>
+        <v>21037.7144</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19464.4478</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.8462</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9617.794</v>
       </c>
-      <c r="O4" s="1">
-        <v>535.5522</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30987.8022</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0226</v>
+        <v>0.0336</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>15.9313</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2049.787</v>
       </c>
       <c r="F5" s="1">
         <v>531.4363</v>
       </c>
       <c r="G5" s="1">
-        <v>2581.2233</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>32486.4586</v>
       </c>
       <c r="I5" s="1">
-        <v>37930.9196</v>
+        <v>535.5522</v>
       </c>
       <c r="J5" s="1">
-        <v>14.6949</v>
+        <v>33022.0108</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27930.9196</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.6263</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8466.471799999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>2069.0804</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42978.1141</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0486</v>
+        <v>0.0639</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.0207</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2581.2233</v>
       </c>
       <c r="F6" s="1">
         <v>461.6217</v>
       </c>
       <c r="G6" s="1">
-        <v>3042.845</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>43706.3054</v>
       </c>
       <c r="I6" s="1">
-        <v>45788.0446</v>
+        <v>2069.0804</v>
       </c>
       <c r="J6" s="1">
-        <v>15.0478</v>
+        <v>45775.3858</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>35788.0446</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.8648</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7857.125</v>
       </c>
-      <c r="O6" s="1">
-        <v>4211.9554</v>
-      </c>
-      <c r="P6" s="1">
-        <v>55734.6246</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.052</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.4608</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3042.845</v>
       </c>
       <c r="F7" s="1">
         <v>543.4988</v>
       </c>
       <c r="G7" s="1">
-        <v>3586.3438</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>52854.8268</v>
       </c>
       <c r="I7" s="1">
-        <v>55277.9681</v>
+        <v>4211.9554</v>
       </c>
       <c r="J7" s="1">
-        <v>15.4135</v>
+        <v>57066.7822</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45277.9681</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.8801</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9489.923500000001</v>
       </c>
-      <c r="O7" s="1">
-        <v>4722.0319</v>
-      </c>
-      <c r="P7" s="1">
-        <v>67017.54120000001</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0195</v>
+        <v>0.0232</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>16.886</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3586.3438</v>
       </c>
       <c r="F8" s="1">
         <v>772.9705</v>
       </c>
       <c r="G8" s="1">
-        <v>4359.3143</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>60245.1965</v>
       </c>
       <c r="I8" s="1">
-        <v>68330.3484</v>
+        <v>4722.0319</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6746</v>
+        <v>64967.2284</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58330.3484</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.2646</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-13052.3803</v>
       </c>
-      <c r="O8" s="1">
-        <v>1669.6516</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74899.5935</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0275</v>
+        <v>-0.0313</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.59</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4359.3143</v>
       </c>
       <c r="F9" s="1">
         <v>459.7813</v>
       </c>
       <c r="G9" s="1">
-        <v>4819.0957</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>76282.76979999999</v>
       </c>
       <c r="I9" s="1">
-        <v>76417.90180000001</v>
+        <v>1669.6516</v>
       </c>
       <c r="J9" s="1">
-        <v>15.8573</v>
+        <v>77952.4213</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>66417.90180000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.2359</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8087.5534</v>
       </c>
-      <c r="O9" s="1">
-        <v>3582.0982</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87910.4893</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0355</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>15.0121</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4819.0957</v>
       </c>
       <c r="F10" s="1">
         <v>904.7434</v>
       </c>
       <c r="G10" s="1">
-        <v>5723.839</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>85480.9571</v>
+        <v>71969.3383</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>3582.0982</v>
       </c>
       <c r="J10" s="1">
-        <v>15.7237</v>
+        <v>75551.4366</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>16.6006</v>
+      </c>
+      <c r="M10" s="1">
         <v>3.57</v>
       </c>
-      <c r="L10" s="1">
-        <v>15483.7543</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>1901.6561</v>
+        <v>14006.477</v>
       </c>
       <c r="O10" s="1">
-        <v>15483.7543</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>100964.7114</v>
+        <v>424.3787</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0312</v>
+        <v>-0.141</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>15.3645</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5723.839</v>
       </c>
       <c r="F11" s="1">
         <v>1278.3603</v>
       </c>
       <c r="G11" s="1">
-        <v>7002.1994</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>87487.735</v>
       </c>
       <c r="I11" s="1">
-        <v>109641.367</v>
+        <v>14006.477</v>
       </c>
       <c r="J11" s="1">
-        <v>15.6581</v>
+        <v>101494.212</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>99641.367</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.4081</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-19641.367</v>
       </c>
-      <c r="O11" s="1">
-        <v>5842.3874</v>
-      </c>
-      <c r="P11" s="1">
-        <v>112869.6041</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0172</v>
+        <v>0.1864</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>16.4953</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>7002.1994</v>
       </c>
       <c r="F12" s="1">
         <v>227.2214</v>
       </c>
       <c r="G12" s="1">
-        <v>7229.4207</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>114903.9907</v>
       </c>
       <c r="I12" s="1">
-        <v>113389.4513</v>
+        <v>4365.11</v>
       </c>
       <c r="J12" s="1">
-        <v>15.6844</v>
+        <v>119269.1007</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103389.4513</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.7653</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-3748.0843</v>
       </c>
-      <c r="O12" s="1">
-        <v>12094.303</v>
-      </c>
-      <c r="P12" s="1">
-        <v>130726.928</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0639</v>
+        <v>0.0697</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>16.9701</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>7229.4207</v>
       </c>
       <c r="F13" s="1">
         <v>495.4544</v>
       </c>
       <c r="G13" s="1">
-        <v>7724.8751</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>122047.8033</v>
       </c>
       <c r="I13" s="1">
-        <v>121797.3623</v>
+        <v>10617.0257</v>
       </c>
       <c r="J13" s="1">
-        <v>15.7669</v>
+        <v>132664.8289</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111797.3623</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.4642</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-8407.911</v>
       </c>
-      <c r="O13" s="1">
-        <v>13686.392</v>
-      </c>
-      <c r="P13" s="1">
-        <v>144098.5063</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.024</v>
+        <v>0.0263</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>17.9905</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7724.8751</v>
       </c>
       <c r="F14" s="1">
         <v>-7724.8751</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>138253.635</v>
       </c>
       <c r="I14" s="1">
-        <v>121797.3623</v>
+        <v>12209.1146</v>
       </c>
       <c r="J14" s="1">
-        <v>15.7669</v>
+        <v>150462.7497</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111797.3623</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.4724</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>138253.635</v>
       </c>
-      <c r="O14" s="1">
-        <v>151940.0271</v>
-      </c>
-      <c r="P14" s="1">
-        <v>151940.0271</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.014</v>
+        <v>0.0547</v>
       </c>
     </row>
   </sheetData>
@@ -4480,8 +4453,8 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.942</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.9406</v>
+        <v>14.7503</v>
       </c>
       <c r="D3" s="1">
-        <v>15.7074</v>
+        <v>14.3005</v>
       </c>
       <c r="E3" s="1">
-        <v>15.7277</v>
+        <v>14.3591</v>
       </c>
       <c r="F3" s="1">
-        <v>15.7475</v>
+        <v>14.4164</v>
       </c>
       <c r="G3" s="1">
-        <v>15.7669</v>
+        <v>14.4724</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2865</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2992</v>
+        <v>0.431</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2768</v>
+        <v>0.4097</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2813</v>
+        <v>0.4145</v>
       </c>
       <c r="F4" s="3">
-        <v>0.286</v>
+        <v>0.4195</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2907</v>
+        <v>0.4246</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2017</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0844</v>
+        <v>0.2569</v>
       </c>
       <c r="D5" s="3">
-        <v>0.08450000000000001</v>
+        <v>0.2372</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0849</v>
+        <v>0.2409</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0854</v>
+        <v>0.2447</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0859</v>
+        <v>0.2486</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.3199</v>
       </c>
       <c r="C6" s="4">
-        <v>3.305</v>
+        <v>1.5985</v>
       </c>
       <c r="D6" s="4">
-        <v>3.0342</v>
+        <v>1.6414</v>
       </c>
       <c r="E6" s="4">
-        <v>3.0732</v>
+        <v>1.6363</v>
       </c>
       <c r="F6" s="4">
-        <v>3.1116</v>
+        <v>1.6314</v>
       </c>
       <c r="G6" s="4">
-        <v>3.1495</v>
+        <v>1.6265</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5652</v>
+        <v>0.2526</v>
       </c>
       <c r="D7" s="3">
-        <v>0.5695</v>
+        <v>0.5397</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5707</v>
+        <v>0.54</v>
       </c>
       <c r="F7" s="3">
-        <v>0.5719</v>
+        <v>0.5404</v>
       </c>
       <c r="G7" s="3">
-        <v>0.5731000000000001</v>
+        <v>0.5407</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>16176.3655</v>
+        <v>14349.7595</v>
       </c>
       <c r="D8" s="1">
-        <v>14689.0072</v>
+        <v>13388.6954</v>
       </c>
       <c r="E8" s="1">
-        <v>14948.6516</v>
+        <v>13591.2078</v>
       </c>
       <c r="F8" s="1">
-        <v>15213.5344</v>
+        <v>13797.118</v>
       </c>
       <c r="G8" s="1">
-        <v>15483.7543</v>
+        <v>14006.477</v>
       </c>
     </row>
   </sheetData>
